--- a/blatt08/Aufgabe8.2.xlsx
+++ b/blatt08/Aufgabe8.2.xlsx
@@ -1469,7 +1469,7 @@
     <mergeCell ref="A20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>